--- a/Median price and number of transfers (capital city and rest of state).xlsx
+++ b/Median price and number of transfers (capital city and rest of state).xlsx
@@ -5497,7 +5497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="147">
   <si>
     <t>Median Price of Established House Transfers (Unstratified) ;  Sydney ;</t>
   </si>
@@ -5936,6 +5936,10 @@
   </si>
   <si>
     <t>$'000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Established House Transfers ;  Melbourne ;</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6496,7 +6500,7 @@
   <dimension ref="A2:M73"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -8623,10 +8627,10 @@
   <dimension ref="A1:BI103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="AB11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -8732,7 +8736,7 @@
         <v>31</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="AI1" s="3" t="s">
         <v>33</v>
